--- a/results/xls/remote-payload-no.xlsx
+++ b/results/xls/remote-payload-no.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43420" yWindow="-4100" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="5840" yWindow="3260" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="remote-payload-no" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="18">
   <si>
     <t>x67VK</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>8C8x6</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -90,12 +96,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,15 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +441,7 @@
         <v>1490733752916</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -424,8 +454,18 @@
       <c r="D2">
         <v>1490733755370</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>(D2-D1)/1000</f>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -438,8 +478,27 @@
       <c r="D3">
         <v>1490733755500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M3" s="3">
+        <f>AVERAGE(I3:L3)</f>
+        <v>0.83350000000000013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -452,8 +511,16 @@
       <c r="D4">
         <v>1490733765657</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>(D4-D3)/1000</f>
+        <v>10.157</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -466,8 +533,27 @@
       <c r="D5">
         <v>1490733767176</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10.157</v>
+      </c>
+      <c r="J5">
+        <v>5.7990000000000004</v>
+      </c>
+      <c r="K5">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="L5">
+        <v>6.1790000000000003</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M4:M11" si="0">AVERAGE(I5:L5)</f>
+        <v>6.9092500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -480,8 +566,16 @@
       <c r="D6">
         <v>1490733790917</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>(D6-D5)/1000</f>
+        <v>23.741</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -494,8 +588,27 @@
       <c r="D7">
         <v>1490733848311</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>23.741</v>
+      </c>
+      <c r="J7">
+        <v>54.12</v>
+      </c>
+      <c r="K7">
+        <v>74.024000000000001</v>
+      </c>
+      <c r="L7">
+        <v>28.462</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>45.086749999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -508,8 +621,16 @@
       <c r="D8">
         <v>1490733912233</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f>(D8-D7)/1000</f>
+        <v>63.921999999999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -522,8 +643,27 @@
       <c r="D9">
         <v>1490733918255</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>63.921999999999997</v>
+      </c>
+      <c r="J9">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="K9">
+        <v>42.581000000000003</v>
+      </c>
+      <c r="L9">
+        <v>91.846000000000004</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>67.624750000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -536,8 +676,16 @@
       <c r="D10">
         <v>1490733918292</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f>(D10-D9)/1000</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -550,8 +698,52 @@
       <c r="D11">
         <v>1490733922500</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM(I3:I11)</f>
+        <v>100.31100000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:L12" si="1">SUM(J3:J11)</f>
+        <v>132.38300000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>122.41200000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>126.798</v>
+      </c>
+      <c r="M12" s="2">
+        <f>SUM(M3:M11)</f>
+        <v>120.476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -565,7 +757,7 @@
         <v>1490733937513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -578,8 +770,12 @@
       <c r="D14">
         <v>1490733937811</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f>(D14-D13)/1000</f>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -593,7 +789,7 @@
         <v>1490733938097</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -606,8 +802,12 @@
       <c r="D16">
         <v>1490733943896</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f>(D16-D15)/1000</f>
+        <v>5.7990000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -621,7 +821,7 @@
         <v>1490733944029</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -634,8 +834,12 @@
       <c r="D18">
         <v>1490733998149</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f>(D18-D17)/1000</f>
+        <v>54.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -649,7 +853,7 @@
         <v>1490734000168</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -662,8 +866,12 @@
       <c r="D20">
         <v>1490734072318</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>(D20-D19)/1000</f>
+        <v>72.150000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -677,7 +885,7 @@
         <v>1490734078339</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -690,8 +898,12 @@
       <c r="D22">
         <v>1490734078355</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>(D22-D21)/1000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -705,7 +917,7 @@
         <v>1490734081628</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -719,7 +931,7 @@
         <v>1490734171057</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -732,8 +944,12 @@
       <c r="D26">
         <v>1490734171346</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f>(D26-D25)/1000</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -747,7 +963,7 @@
         <v>1490734171386</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -760,8 +976,12 @@
       <c r="D28">
         <v>1490734176888</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f>(D28-D27)/1000</f>
+        <v>5.5019999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -775,7 +995,7 @@
         <v>1490734177005</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -788,8 +1008,12 @@
       <c r="D30">
         <v>1490734251029</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f>(D30-D29)/1000</f>
+        <v>74.024000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -803,7 +1027,7 @@
         <v>1490734254024</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -816,8 +1040,12 @@
       <c r="D32">
         <v>1490734296605</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f>(D32-D31)/1000</f>
+        <v>42.581000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -831,7 +1059,7 @@
         <v>1490734302621</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -844,8 +1072,12 @@
       <c r="D34">
         <v>1490734302637</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f>(D34-D33)/1000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -859,7 +1091,7 @@
         <v>1490734305862</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -873,7 +1105,7 @@
         <v>1490734312842</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -886,8 +1118,12 @@
       <c r="D38">
         <v>1490734313135</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f>(D38-D37)/1000</f>
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -901,7 +1137,7 @@
         <v>1490734313188</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -914,8 +1150,12 @@
       <c r="D40">
         <v>1490734319367</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f>(D40-D39)/1000</f>
+        <v>6.1790000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -929,7 +1169,7 @@
         <v>1490734319492</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -942,8 +1182,12 @@
       <c r="D42">
         <v>1490734347954</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <f>(D42-D41)/1000</f>
+        <v>28.462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1201,7 @@
         <v>1490734349976</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -970,8 +1214,12 @@
       <c r="D44">
         <v>1490734441822</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f>(D44-D43)/1000</f>
+        <v>91.846000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -985,7 +1233,7 @@
         <v>1490734450694</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1246,12 @@
       <c r="D46">
         <v>1490734450712</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f>(D46-D45)/1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
